--- a/Config/NoSQLUser.xlsx
+++ b/Config/NoSQLUser.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerBase\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6006D3-7021-452A-9E58-1E25328013F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D30CEA-5236-47C2-9B52-5F2B7CBC5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13149" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoSQLUser" sheetId="1" r:id="rId1"/>
-    <sheet name="TestNoSQLUserComponent" sheetId="2" r:id="rId2"/>
+    <sheet name="Test2Component" sheetId="3" r:id="rId2"/>
+    <sheet name="TestNoSQLUserComponent" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>ID:INT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>NAME:STRING</t>
   </si>
@@ -78,6 +76,26 @@
   </si>
   <si>
     <t>TestNoSQLUserComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY:INT64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:STRING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,13 +438,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -439,19 +457,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -460,16 +478,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -478,13 +496,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -492,9 +510,15 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -513,11 +537,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C32949-EB6D-4B2D-BC3D-437A4DD21C22}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F74F23-F92B-40D9-9409-01164AEBB4F0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -529,28 +601,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/NoSQLUser.xlsx
+++ b/Config/NoSQLUser.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerBase\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D30CEA-5236-47C2-9B52-5F2B7CBC5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E7BB6-C6B1-42B5-AEF5-10CDC51F3A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13149" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoSQLUser" sheetId="1" r:id="rId1"/>
-    <sheet name="Test2Component" sheetId="3" r:id="rId2"/>
-    <sheet name="TestNoSQLUserComponent" sheetId="2" r:id="rId3"/>
+    <sheet name="ItemDataComponent" sheetId="4" r:id="rId2"/>
+    <sheet name="Test2Component" sheetId="3" r:id="rId3"/>
+    <sheet name="TestNoSQLUserComponent" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>NAME:STRING</t>
   </si>
@@ -96,6 +97,49 @@
   </si>
   <si>
     <t>ID:STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDataComponent</t>
+  </si>
+  <si>
+    <t>KEY:STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME:STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品相对与玩家唯一ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型[-1行为表格类型]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE:INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT:INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +483,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -521,7 +565,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
@@ -537,10 +589,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B30B73-C49A-475F-8F2B-8352B57FBE97}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C32949-EB6D-4B2D-BC3D-437A4DD21C22}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -584,7 +696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F74F23-F92B-40D9-9409-01164AEBB4F0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
